--- a/logs/DowlerJessica_201601Wk1_Time Estimation.xlsx
+++ b/logs/DowlerJessica_201601Wk1_Time Estimation.xlsx
@@ -403,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,30 +616,95 @@
       <c r="C24">
         <v>30</v>
       </c>
+      <c r="D24">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <f>C24-D24</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>10</v>
       </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <f>C25-D25</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C26">
         <v>30</v>
+      </c>
+      <c r="D26">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <f>C26-D26</f>
+        <v>-10</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>40</v>
       </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <f>C27-D27</f>
+        <v>20</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>30</v>
+      </c>
+      <c r="D28">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <f>C28-D28</f>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
